--- a/data/income_statement/2digits/size/41_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/41_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>41-Construction of buildings</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>41-Construction of buildings</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>12900135.83091</v>
+        <v>13644656.09637</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>14142119.64571</v>
+        <v>14969953.56102</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>18164787.13822</v>
+        <v>19239923.43024</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>19807377.43182</v>
+        <v>21423026.48632</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>28971164.22025</v>
+        <v>30982738.04525</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>31877190.69904</v>
+        <v>35166596.55052</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>35148434.64964</v>
+        <v>41479692.95809001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>42841541.02678</v>
+        <v>48290451.2565</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>52696675.76436</v>
+        <v>59281248.65638001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>76340902.49417</v>
+        <v>81304625.12257001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>79045297.99966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>86525561.05954</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>89875918.934</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>12260140.18203</v>
+        <v>12914241.08272</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>13444187.27471</v>
+        <v>14175932.79325</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>17039121.24198</v>
+        <v>18041830.66841</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>19001455.60769</v>
+        <v>20502405.84968</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>27781996.29733</v>
+        <v>29646943.61976</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>30324926.12343</v>
+        <v>33409949.15054</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>33575693.74741</v>
+        <v>39633376.00456</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>41412445.94762</v>
+        <v>46533459.04379</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>50829480.50211</v>
+        <v>57022136.83915</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>72795370.37689</v>
+        <v>77464159.12921999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>74638735.63209002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>81647480.54806001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>84910240.85600001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>379175.62007</v>
+        <v>440943.52532</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>431222.9012199999</v>
+        <v>504948.81965</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>790404.80469</v>
+        <v>829236.66839</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>474327.0459</v>
+        <v>529471.35765</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>686600.9220599999</v>
+        <v>774034.3681000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>949320.60097</v>
+        <v>1067807.01705</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>889492.30984</v>
+        <v>1023653.83417</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>581578.56909</v>
+        <v>711247.39626</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>971896.42279</v>
+        <v>1106568.10752</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2120032.57283</v>
+        <v>2289165.21593</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2923680.24662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3147552.12093</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3177173.185</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>260820.02881</v>
+        <v>289471.48833</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>266709.46978</v>
+        <v>289071.94812</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>335261.09155</v>
+        <v>368856.09344</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>331594.77823</v>
+        <v>391149.27899</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>502567.00086</v>
+        <v>561760.05739</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>602943.97464</v>
+        <v>688840.3829300001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>683248.59239</v>
+        <v>822663.11936</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>847516.51007</v>
+        <v>1045744.81645</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>895298.83946</v>
+        <v>1152543.70971</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1425499.54445</v>
+        <v>1551300.77742</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1482882.12095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1730528.39055</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1788504.893</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>44046.27473</v>
+        <v>61532.50564</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>45886.55863</v>
+        <v>42757.05168</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>52271.10593</v>
+        <v>60367.30944</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>54695.81352</v>
+        <v>66542.6406</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>92194.10362000001</v>
+        <v>74609.91752</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>181278.07181</v>
+        <v>257130.79272</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>280245.01843</v>
+        <v>1456133.08982</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>103170.22957</v>
+        <v>256662.47208</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>218215.35858</v>
+        <v>268407.48996</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>333218.5957900001</v>
+        <v>414835.6126000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>357241.31353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>532596.32701</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>945631.976</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>26188.1189</v>
+        <v>32362.15082</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>34843.92839</v>
+        <v>34432.39990999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>37695.5272</v>
+        <v>43275.25858</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>44434.18901</v>
+        <v>49800.37181999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>81738.43971000001</v>
+        <v>64292.76661999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>166167.25437</v>
+        <v>242420.90853</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>262295.02151</v>
+        <v>1437805.84567</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>76372.74731000001</v>
+        <v>220037.21709</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>200547.55466</v>
+        <v>237057.05938</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>258211.97024</v>
+        <v>330675.56069</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>277115.3105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>440691.72619</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>837602.395</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>10659.87904</v>
+        <v>21904.49148</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7470.85512</v>
+        <v>7018.449590000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>11217.39512</v>
+        <v>11149.77145</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6876.15196</v>
+        <v>7022.77462</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3556.59854</v>
+        <v>4391.23034</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8446.54666</v>
+        <v>8752.538339999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9106.52007</v>
+        <v>10400.59345</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8148.4031</v>
+        <v>9843.295039999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>9090.19685</v>
+        <v>18383.25787</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>20933.75202</v>
+        <v>35447.04674000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>31705.84249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>38378.39792</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>57633.145</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>7198.27679</v>
+        <v>7265.86334</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3571.77512</v>
+        <v>1306.20218</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3358.18361</v>
+        <v>5942.27941</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3385.47255</v>
+        <v>9719.49416</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6899.06537</v>
+        <v>5925.92056</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6664.27078</v>
+        <v>5957.34585</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8843.476849999999</v>
+        <v>7926.6507</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>18649.07916</v>
+        <v>26781.95995</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>8577.607069999998</v>
+        <v>12967.17271</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>54072.87353</v>
+        <v>48713.00517</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>48420.16054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>53526.2029</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>50396.436</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>12856089.55618</v>
+        <v>13583123.59073</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>14096233.08708</v>
+        <v>14927196.50934</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>18112516.03229</v>
+        <v>19179556.1208</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>19752681.6183</v>
+        <v>21356483.84572</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>28878970.11663</v>
+        <v>30908128.12773</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>31695912.62723</v>
+        <v>34909465.75780001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>34868189.63121</v>
+        <v>40023559.86826999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>42738370.79721</v>
+        <v>48033788.78442</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>52478460.40578</v>
+        <v>59012841.16642</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>76007683.89838001</v>
+        <v>80889789.50996999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>78688056.68612999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>85992964.73253</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>88930286.958</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>11060472.65423</v>
+        <v>11658762.90758</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>12129071.26717</v>
+        <v>12792738.53768</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>15705216.00838</v>
+        <v>16596762.73139</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>17081913.57679</v>
+        <v>18399184.93852</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>25242403.32005</v>
+        <v>26975980.93679</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>27851829.54563</v>
+        <v>30504635.22159</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>30736344.29728</v>
+        <v>35024258.06628</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>37618742.55368</v>
+        <v>41952830.37463</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>46774996.41595</v>
+        <v>52080095.43418</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>68087874.45021001</v>
+        <v>71914269.57913001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>70717147.65357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>76906911.98064999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>78138286.89300001</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2792569.06244</v>
+        <v>3021988.47897</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3264796.09205</v>
+        <v>3539604.148</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4485776.996150001</v>
+        <v>4911590.16467</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5563894.77752</v>
+        <v>6192944.030910001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8775076.331940001</v>
+        <v>9512344.2611</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>9990244.614010001</v>
+        <v>11153842.14674</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>10959272.28105</v>
+        <v>12967236.874</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>14171974.38045</v>
+        <v>16351516.43267</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>17257160.99095</v>
+        <v>20157983.96339</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>27603911.44827</v>
+        <v>29319733.45507</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>28334273.89443</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>30556519.46443</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>28096871.336</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3126762.20911</v>
+        <v>3229436.52449</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3321332.02164</v>
+        <v>3422528.56086</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4731262.95695</v>
+        <v>4870916.77571</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4624080.44217</v>
+        <v>4827721.45437</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6079808.41654</v>
+        <v>6339541.61979</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6925599.17934</v>
+        <v>7422602.76834</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>8280106.918200001</v>
+        <v>8981713.262460001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>10329886.15073</v>
+        <v>11122819.60596</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>14119723.06438</v>
+        <v>15184672.54119</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>16132008.70722</v>
+        <v>16684395.31035</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>17120735.18514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18203850.28372</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>23632025.295</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5092258.26583</v>
+        <v>5339812.41873</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5492740.79113</v>
+        <v>5772605.62625</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>6425332.16016</v>
+        <v>6743142.553309999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6809317.781119999</v>
+        <v>7275403.06816</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>10219157.11776</v>
+        <v>10933384.38107</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>10705300.35823</v>
+        <v>11648675.92111</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>11210040.96556</v>
+        <v>12734129.31415</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>12727670.04244</v>
+        <v>14005691.41048</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>14979076.81402</v>
+        <v>16205783.42511</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>23574798.61187</v>
+        <v>25098911.80059</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>24475279.06004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>27275042.94342</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>25394421.201</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>48883.11685</v>
+        <v>67525.48539</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>50202.36235</v>
+        <v>58000.20257</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>62843.89512000001</v>
+        <v>71113.2377</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>84620.57598000001</v>
+        <v>103116.38508</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>168361.45381</v>
+        <v>190710.67483</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>230685.39405</v>
+        <v>279514.3854</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>286924.13247</v>
+        <v>341178.61567</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>389211.9800599999</v>
+        <v>472802.92552</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>419035.5466</v>
+        <v>531655.50449</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>777155.6828499999</v>
+        <v>811229.01312</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>786859.51396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>871499.28908</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1014969.061</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1795616.90195</v>
+        <v>1924360.68315</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1967161.81991</v>
+        <v>2134457.97166</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2407300.02391</v>
+        <v>2582793.38941</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2670768.04151</v>
+        <v>2957298.9072</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3636566.79658</v>
+        <v>3932147.19094</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3844083.0816</v>
+        <v>4404830.53621</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4131845.33393</v>
+        <v>4999301.80199</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5119628.243530001</v>
+        <v>6080958.40979</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>5703463.98983</v>
+        <v>6932745.732240001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>7919809.44817</v>
+        <v>8975519.930840001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7970909.03256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9086052.751880001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>10792000.065</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1079648.54076</v>
+        <v>1144569.37338</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1232670.14568</v>
+        <v>1301321.37539</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1533851.48079</v>
+        <v>1681796.9808</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1701242.34218</v>
+        <v>1888717.06913</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2270824.64257</v>
+        <v>2487884.86858</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2410269.22496</v>
+        <v>2651587.48034</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2677368.24916</v>
+        <v>3016656.58269</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3386138.31402</v>
+        <v>3761177.86742</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3720762.98121</v>
+        <v>4296520.36666</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4930684.37286</v>
+        <v>5112643.17729</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5126754.566299999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5480161.84463</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6093037.06</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5798.63563</v>
+        <v>5860.856690000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3860.78466</v>
+        <v>3645.81385</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>2037.88932</v>
+        <v>2225.23807</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3238.40402</v>
+        <v>3428.22673</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6413.04266</v>
+        <v>7117.861730000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>8385.360480000001</v>
+        <v>7442.79684</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>8700.67254</v>
+        <v>9937.30049</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>10459.11538</v>
+        <v>10614.60878</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>10867.41812</v>
+        <v>9506.91014</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3316.75364</v>
+        <v>4447.16806</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>12110.53655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16511.19852</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3186.725</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>113130.4665</v>
+        <v>116194.5919</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>122211.48414</v>
+        <v>142651.48181</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>171998.21281</v>
+        <v>201132.6588</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>173716.42476</v>
+        <v>231013.90909</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>205263.25265</v>
+        <v>286444.45915</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>206490.71799</v>
+        <v>280810.73758</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>227805.02262</v>
+        <v>303523.91303</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>270433.0835299999</v>
+        <v>322927.03147</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>321097.35455</v>
+        <v>438361.83225</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>533274.7236800001</v>
+        <v>622218.8211800001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>557110.2886600001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>655996.831</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>790844.921</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>960719.43863</v>
+        <v>1022513.92479</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1106597.87688</v>
+        <v>1155024.07973</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1359815.37866</v>
+        <v>1478439.08393</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1524287.5134</v>
+        <v>1654274.93331</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2059148.34726</v>
+        <v>2194322.5477</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2195393.14649</v>
+        <v>2363333.945919999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>2440862.554</v>
+        <v>2703195.36917</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3105246.11511</v>
+        <v>3427636.227169999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3388798.20854</v>
+        <v>3848651.62427</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4394092.89554</v>
+        <v>4485977.18805</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4557533.741090001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4807653.815110001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5299005.414</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>715968.3611900001</v>
+        <v>779791.3097699999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>734491.67423</v>
+        <v>833136.59627</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>873448.54312</v>
+        <v>900996.40861</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>969525.69933</v>
+        <v>1068581.83807</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1365742.15401</v>
+        <v>1444262.32236</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1433813.85664</v>
+        <v>1753243.05587</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1454477.08477</v>
+        <v>1982645.2193</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1733489.92951</v>
+        <v>2319780.54237</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1982701.00862</v>
+        <v>2636225.36558</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2989125.07531</v>
+        <v>3862876.75355</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2844154.46626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3605890.90725</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4698963.005</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>185264.84722</v>
+        <v>498517.84166</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>171774.33683</v>
+        <v>581415.63884</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>211296.48489</v>
+        <v>614537.9601799999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>204722.13265</v>
+        <v>543021.0924</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>341000.16839</v>
+        <v>973994.80897</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>382429.57553</v>
+        <v>1245491.3846</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>537860.61041</v>
+        <v>2082815.2488</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>516916.69508</v>
+        <v>1792575.4496</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>534408.84228</v>
+        <v>1953569.69763</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2096991.72329</v>
+        <v>5877638.3073</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1606318.76074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4537290.192810001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4502757.468</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>12654.21683</v>
+        <v>115516.60814</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>16777.52083</v>
+        <v>93674.15152</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>13035.84497</v>
+        <v>34114.59854</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>24870.65187</v>
+        <v>43459.74589</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>28738.86582</v>
+        <v>94370.24390999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>30835.08654</v>
+        <v>66181.05446</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>28933.14493</v>
+        <v>70841.2248</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>41920.79101</v>
+        <v>83388.60631999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>39178.06577</v>
+        <v>189734.8483</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>132824.47922</v>
+        <v>166031.61809</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>129967.31085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>264315.62466</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>175231.204</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>9779.49382</v>
+        <v>19003.03594</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5668.05538</v>
+        <v>30848.80475</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>4989.62207</v>
+        <v>7203.08264</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>13448.00598</v>
+        <v>49994.05904</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>9094.0501</v>
+        <v>20285.4886</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>11594.68273</v>
+        <v>234871.65106</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>39970.84953</v>
+        <v>335124.59074</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>25183.83175</v>
+        <v>337601.15521</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>24329.74998</v>
+        <v>139254.76373</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>80101.04669</v>
+        <v>108439.35862</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>79674.33726999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>207721.44279</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>119295.88</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>40556.71707</v>
+        <v>92133.62799000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>38235.83352</v>
+        <v>97715.84501999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>41977.31926</v>
+        <v>106886.63204</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>44506.22433</v>
+        <v>94064.60429</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>62596.78421</v>
+        <v>131731.50719</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>79863.43219999998</v>
+        <v>196942.72916</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>99224.15966999999</v>
+        <v>251861.64483</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>101124.52154</v>
+        <v>207133.34899</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>128130.61934</v>
+        <v>326402.64332</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>314630.1319099999</v>
+        <v>793471.21753</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>349392.58146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>772563.61463</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>580360.6360000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1431.61314</v>
+        <v>1778.04219</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2242.07326</v>
+        <v>4057.20576</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>842.2237700000001</v>
+        <v>1903.7684</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1093.54398</v>
+        <v>986.6568100000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1288.72589</v>
+        <v>1743.7633</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>3444.83099</v>
+        <v>4190.26005</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2940.4348</v>
+        <v>10791.5469</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2578.94716</v>
+        <v>2987.65861</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>3226.57023</v>
+        <v>5115.85222</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3486.88214</v>
+        <v>25322.64701</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>12324.782</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>16241.39502</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>18425.041</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3664.12722</v>
+        <v>1875.46968</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>4805.74404</v>
+        <v>8851.902189999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>7587.4883</v>
+        <v>8426.106310000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>9868.60151</v>
+        <v>7091.35251</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>11441.26671</v>
+        <v>15251.50778</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>10346.12868</v>
+        <v>7739.202979999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7198.31933</v>
+        <v>4784.20713</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>5912.03071</v>
+        <v>5991.67513</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3658.04171</v>
+        <v>4155.71657</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>8121.15701</v>
+        <v>7992.83943</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>14063.54421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>27289.57903</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>21670.217</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4221.96817</v>
+        <v>4049.49181</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1979.47758</v>
+        <v>3595.2247</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3325.61529</v>
+        <v>26960.80703</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3911.45767</v>
+        <v>5122.86767</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4668.92225</v>
+        <v>21584.22713</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>10291.92588</v>
+        <v>26318.76194</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11236.84469</v>
+        <v>32983.49054</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8550.54919</v>
+        <v>58522.20557</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>7886.119199999999</v>
+        <v>67440.48611999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>18890.87595</v>
+        <v>102601.73824</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>19742.3376</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>61162.76325</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>83868.68399999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>45166.83875</v>
+        <v>166472.42773</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>42253.50004</v>
+        <v>233738.99927</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>67143.97127000001</v>
+        <v>241747.79551</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>34676.14649</v>
+        <v>159595.32843</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>86769.31131999999</v>
+        <v>383929.84116</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>89993.1096</v>
+        <v>432128.4049500001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>171048.4109</v>
+        <v>925715.28676</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>125391.52766</v>
+        <v>677613.89893</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>119050.13507</v>
+        <v>732953.08398</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1111330.22597</v>
+        <v>3908276.74228</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>549118.8757900001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1487282.36952</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2594815.234</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1824.2272</v>
+        <v>9444.965769999999</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>1642.81383</v>
+        <v>928.7627</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1213.15324</v>
+        <v>113.38749</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>1170.22188</v>
+        <v>427.12697</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>352.01131</v>
+        <v>1030.29799</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>308.31361</v>
+        <v>276.52339</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>686.25464</v>
+        <v>1614.45667</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>750.06684</v>
+        <v>2511.74491</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>238.69628</v>
+        <v>1922.22221</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>782.8104499999999</v>
+        <v>8372.119990000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2980.34565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>120160.35884</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>4951.938</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>3017.42021</v>
+        <v>3558.86527</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>1340.61421</v>
+        <v>1672.67095</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1636.77514</v>
+        <v>1659.76672</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>604.74751</v>
+        <v>423.56385</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1111.17537</v>
+        <v>1895.70284</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>1412.60002</v>
+        <v>952.1052099999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>483.06582</v>
+        <v>581.9448599999999</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>3254.02233</v>
+        <v>3189.12494</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>1911.82572</v>
+        <v>4455.64196</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1281.11975</v>
+        <v>886.0954499999999</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>690.82811</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>1616.72765</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>8999.432000000001</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>62948.22480999999</v>
+        <v>84685.30714</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>56828.70414</v>
+        <v>106332.07198</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>69544.47158</v>
+        <v>185522.0155</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>70572.53143</v>
+        <v>181855.78694</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>134939.05541</v>
+        <v>302172.22907</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>144339.46528</v>
+        <v>275890.6914</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>176139.1261</v>
+        <v>448516.85557</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>202250.40689</v>
+        <v>413636.03099</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>206799.01898</v>
+        <v>482134.4392199999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>425542.9942000001</v>
+        <v>756243.9306600001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>448363.8178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1578936.31742</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>895139.202</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>103839.47611</v>
+        <v>347606.3011699999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>78269.60621</v>
+        <v>266272.39724</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>114915.46189</v>
+        <v>343028.31218</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>179858.69843</v>
+        <v>192063.57933</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>174225.95196</v>
+        <v>623437.83928</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>153788.16082</v>
+        <v>589214.0516499999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>241091.21904</v>
+        <v>1248216.33093</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>262996.23962</v>
+        <v>1126547.03529</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>239743.12034</v>
+        <v>1397726.0003</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1607655.99263</v>
+        <v>5781523.02466</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>987833.3654</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2715997.29586</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4118088.682</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3335.97075</v>
+        <v>5571.4969</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2140.67688</v>
+        <v>2535.61984</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2993.41519</v>
+        <v>4073.60605</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4075.14598</v>
+        <v>4816.38594</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5039.28292</v>
+        <v>4911.72446</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4044.10259</v>
+        <v>4111.56717</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4189.56388</v>
+        <v>5705.0598</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>8275.194520000001</v>
+        <v>8032.8635</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5101.00039</v>
+        <v>7232.28484</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>9046.028470000001</v>
+        <v>16552.67179</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11613.26426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>13478.83843</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>16752.425</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>17754.7813</v>
+        <v>21012.31166</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8811.437400000001</v>
+        <v>11131.68102</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9891.3408</v>
+        <v>37195.26822</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>13909.07011</v>
+        <v>20486.77375</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>16531.36814</v>
+        <v>30211.52851</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>22544.70605</v>
+        <v>38409.87703</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>28173.22272</v>
+        <v>41515.13898</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>40385.14071</v>
+        <v>46284.82648</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>31490.23804</v>
+        <v>30870.76209</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>71571.79667</v>
+        <v>82579.41713</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>97124.69698000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>102246.3551</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>177249.784</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>900.39676</v>
+        <v>260.41062</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>441.78274</v>
+        <v>1060.929</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3759.45149</v>
+        <v>3428.24159</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>1959.91738</v>
+        <v>1876.45046</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>781.1755400000001</v>
+        <v>43456.67161</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>562.35082</v>
+        <v>14837.37296</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>6717.17731</v>
+        <v>11189.3587</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6624.061019999999</v>
+        <v>6560.16442</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>3650.02101</v>
+        <v>18872.43192</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>13588.14777</v>
+        <v>50224.79543</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>4835.47352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>15915.18052</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>17029.862</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>50145.1522</v>
+        <v>156772.29245</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>39569.0313</v>
+        <v>200657.74315</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>62034.59893</v>
+        <v>251335.85746</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>39803.98849</v>
+        <v>114407.91079</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>93689.87156999999</v>
+        <v>468245.50468</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>80512.18550000001</v>
+        <v>443055.48582</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>149648.02197</v>
+        <v>1078988.67679</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>113605.18999</v>
+        <v>895264.97438</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>113902.95944</v>
+        <v>975299.73951</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1288927.11343</v>
+        <v>5154545.45816</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>628068.92458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1896484.42009</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3658810.948</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1378.44324</v>
+        <v>6912.49321</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>2127.66787</v>
+        <v>1124.96721</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1040.85801</v>
+        <v>50.6165</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>849.42338</v>
+        <v>455.98369</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>171.13769</v>
+        <v>264.26424</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>456.23475</v>
+        <v>848.63712</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>576.48025</v>
+        <v>5436.05556</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>172.52752</v>
+        <v>1713.54819</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>398.9939</v>
+        <v>2521.05957</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1179.76893</v>
+        <v>10020.28937</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2053.05003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>121035.83595</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2787.853</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>1638.02627</v>
+        <v>1633.9312</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>1415.10103</v>
+        <v>1932.66356</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>310.59635</v>
+        <v>488.3483899999999</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>2418.30017</v>
+        <v>2470.66981</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>258.95253</v>
+        <v>1493.31191</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>235.84925</v>
+        <v>184.85796</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>285.3487</v>
+        <v>3459.94988</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>140.66915</v>
+        <v>553.29696</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>693.36271</v>
+        <v>551.8493599999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>825.02697</v>
+        <v>343.96362</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>328.67832</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>381.90835</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>1510.944</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>28686.70559</v>
+        <v>155443.36513</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>23763.90899</v>
+        <v>47828.79346</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>34885.20112</v>
+        <v>46456.37397</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>116842.85292</v>
+        <v>47549.40489</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>57754.16357</v>
+        <v>74854.83387</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>45432.73186</v>
+        <v>87766.25359000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>51501.40421</v>
+        <v>101922.09122</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>93793.45671000001</v>
+        <v>168137.36136</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>84506.54484999999</v>
+        <v>362377.87301</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>222518.11039</v>
+        <v>467256.4291599999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>243809.27771</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>566454.7574199999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>243946.866</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>142286.46706</v>
+        <v>235653.88852</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>124956.43283</v>
+        <v>259709.88012</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>160080.01234</v>
+        <v>349375.82534</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>228985.88707</v>
+        <v>390960.17117</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>316370.5930700001</v>
+        <v>643013.05399</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>424650.00974</v>
+        <v>796758.9159400001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>522771.91683</v>
+        <v>1296846.32515</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>656001.37238</v>
+        <v>1332492.01971</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>792022.2796</v>
+        <v>1735962.39071</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2142095.36227</v>
+        <v>3833317.34434</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2131221.02543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4121599.12376</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4736100.252</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>133328.05937</v>
+        <v>194012.54272</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>115894.15125</v>
+        <v>207697.18546</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>149182.49228</v>
+        <v>320813.61419</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>217325.21786</v>
+        <v>339034.36875</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>298993.6583</v>
+        <v>563645.60563</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>405481.63167</v>
+        <v>694669.1767599999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>495925.63681</v>
+        <v>1043009.70049</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>621469.43192</v>
+        <v>1197810.69948</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>754910.05077</v>
+        <v>1585303.26269</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2014859.93367</v>
+        <v>3418094.61622</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2011987.89216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3763979.69764</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3717831.331</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>8958.40769</v>
+        <v>41641.3458</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>9062.281580000001</v>
+        <v>52012.69465999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>10897.52006</v>
+        <v>28562.21115</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>11660.66921</v>
+        <v>51925.80242</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>17376.93477</v>
+        <v>79367.44835999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>19168.37807</v>
+        <v>102089.73918</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>26846.28002</v>
+        <v>253836.62466</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>34531.94046</v>
+        <v>134681.32023</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>37112.22883</v>
+        <v>150659.12802</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>127235.4286</v>
+        <v>415222.72812</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>119233.13327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>357619.42612</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1018268.921</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>655107.26524</v>
+        <v>695048.9617400001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>703039.97202</v>
+        <v>888569.9577499999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>809749.55378</v>
+        <v>823130.2312700001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>765403.2464799999</v>
+        <v>1028579.17997</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1216145.77737</v>
+        <v>1151806.23806</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1237805.26161</v>
+        <v>1612761.47288</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1228474.55931</v>
+        <v>1520397.81202</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1331409.01259</v>
+        <v>1653316.93697</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1485344.45096</v>
+        <v>1456106.6722</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1336365.4437</v>
+        <v>125674.69185</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1331418.83617</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1305584.68044</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>347531.539</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>88797.09624</v>
+        <v>230784.99478</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>106213.19099</v>
+        <v>167706.04642</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>150020.67767</v>
+        <v>192829.23496</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>152546.76147</v>
+        <v>244381.80704</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>206962.14226</v>
+        <v>328308.4299</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>229795.73567</v>
+        <v>437223.63134</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>288230.60719</v>
+        <v>444778.80122</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>333350.2865</v>
+        <v>422463.73592</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>379650.90886</v>
+        <v>656275.25447</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>671526.23829</v>
+        <v>1059424.46639</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>847990.79342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1271893.0655</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1412943.567</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>14544.68809</v>
+        <v>24850.17413</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>10102.62092</v>
+        <v>10053.02066</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>16463.4696</v>
+        <v>41083.912</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>20276.50756</v>
+        <v>25356.61496</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>11431.09465</v>
+        <v>85357.93209</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>10616.89488</v>
+        <v>17575.54083</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>20866.50176</v>
+        <v>23946.97797</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>36373.75195000001</v>
+        <v>43722.0601</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>18416.64167</v>
+        <v>40034.54716</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>24214.16899</v>
+        <v>60445.2064</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>50982.89365000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>46518.13094</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>62992.461</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>74252.40814999999</v>
+        <v>205934.82065</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>96110.57007</v>
+        <v>157653.02576</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>133557.20807</v>
+        <v>151745.32296</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>132270.25391</v>
+        <v>219025.19208</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>195531.04761</v>
+        <v>242950.49781</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>219178.84079</v>
+        <v>419648.09051</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>267364.10543</v>
+        <v>420831.82325</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>296976.53455</v>
+        <v>378741.67582</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>361234.26719</v>
+        <v>616240.70731</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>647312.0693</v>
+        <v>998979.25999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>797007.89977</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1225374.93456</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1349951.106</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>123325.23552</v>
+        <v>183264.11875</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>116716.35981</v>
+        <v>170111.58418</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>783070.17452</v>
+        <v>915890.4162100001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>155510.53773</v>
+        <v>263682.58712</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>206887.53463</v>
+        <v>346319.2836500001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>437139.33365</v>
+        <v>553063.45714</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>281717.91767</v>
+        <v>436617.93242</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>674542.74026</v>
+        <v>986520.28824</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>357399.34765</v>
+        <v>541685.84384</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>994871.97288</v>
+        <v>1433400.03256</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>721809.20757</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>972160.2589</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1313850.42</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2063.16614</v>
+        <v>19371.19407</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1568.77856</v>
+        <v>18599.4039</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>3703.6546</v>
+        <v>19197.40617</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2380.12525</v>
+        <v>4308.29413</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2927.89223</v>
+        <v>3087.58364</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1799.52935</v>
+        <v>1779.8588</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1826.18328</v>
+        <v>17585.70937</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3481.04139</v>
+        <v>12632.36737</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>6755.882920000001</v>
+        <v>7877.91691</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4110.64196</v>
+        <v>8080.94431</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7223.374940000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>13958.1038</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>27306.344</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>26076.34215</v>
+        <v>23031.58058</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>23452.06052</v>
+        <v>26295.02788</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>29330.53989</v>
+        <v>29927.29163</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>26387.54864</v>
+        <v>39081.54684</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>38548.569</v>
+        <v>109738.96641</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>31369.25144</v>
+        <v>42131.16937</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>45799.52351</v>
+        <v>54809.84083</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>42188.66054</v>
+        <v>59563.57916</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>34162.57922</v>
+        <v>49621.02302</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>50711.21608000001</v>
+        <v>87297.79678</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>87666.34149999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>91294.5267</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>88748.001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>95185.72723</v>
+        <v>140861.3441</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>91695.52073</v>
+        <v>125217.1524</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>750035.98003</v>
+        <v>866765.71841</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>126742.86384</v>
+        <v>220292.74615</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>165411.0734</v>
+        <v>233492.7336</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>403970.55286</v>
+        <v>509152.42897</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>234092.21088</v>
+        <v>364222.38222</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>628873.0383299999</v>
+        <v>914324.3417100001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>316480.88551</v>
+        <v>484186.90391</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>940050.1148399999</v>
+        <v>1338021.29147</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>626919.49113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>866907.6283999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1197796.075</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>620579.12596</v>
+        <v>742569.83777</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>692536.8032000001</v>
+        <v>886164.41999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>176700.05693</v>
+        <v>100069.05002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>762439.47022</v>
+        <v>1009278.39989</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1216220.385</v>
+        <v>1133795.38431</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1030461.66363</v>
+        <v>1496921.64708</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1234987.24883</v>
+        <v>1528558.68082</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>990216.55883</v>
+        <v>1089260.38465</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>1507596.01217</v>
+        <v>1570696.08283</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1013019.70911</v>
+        <v>-248300.87432</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1457600.42202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1605317.48704</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>446624.686</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>140392.04141</v>
+        <v>155513.75948</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>154800.06906</v>
+        <v>178728.33455</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>180727.88823</v>
+        <v>204888.78764</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>194485.90235</v>
+        <v>221510.21978</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>286479.31287</v>
+        <v>314507.7695</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>290037.03802</v>
+        <v>331649.25434</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>319974.47864</v>
+        <v>399218.6437</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>350093.35033</v>
+        <v>426684.40292</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>376624.03853</v>
+        <v>485412.82156</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>590569.4468200001</v>
+        <v>643717.045</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>621582.0879899999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>900139.35901</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>867595.2659999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>480187.08455</v>
+        <v>587056.07829</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>537736.73414</v>
+        <v>707436.0854399999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-4027.831300000001</v>
+        <v>-104819.73762</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>567953.56787</v>
+        <v>787768.1801099998</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>929741.07213</v>
+        <v>819287.6148100001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>740424.62561</v>
+        <v>1165272.39274</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>915012.7701900001</v>
+        <v>1129340.03712</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>640123.2084999999</v>
+        <v>662575.98173</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>1130971.97364</v>
+        <v>1085283.26127</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>422450.26229</v>
+        <v>-892017.9193200001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>836018.3340300001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>705178.12803</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-420970.58</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>12819</v>
+        <v>8631</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>14640</v>
+        <v>10091</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>16872</v>
+        <v>12169</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>18510</v>
+        <v>13635</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>21743</v>
+        <v>15109</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>23517</v>
+        <v>16433</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>25847</v>
+        <v>18192</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>28824</v>
+        <v>19643</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>32184</v>
+        <v>21702</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>24758</v>
+        <v>18007</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>22861</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>15046</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>16108</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>